--- a/phpspreadsheet/pds.xlsx
+++ b/phpspreadsheet/pds.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -81,13 +81,13 @@
     <t>SURNAME</t>
   </si>
   <si>
-    <t>BILAO</t>
+    <t>CASADO</t>
   </si>
   <si>
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t>WEDAD</t>
+    <t>REGINA</t>
   </si>
   <si>
     <t>Married</t>
@@ -99,7 +99,7 @@
     <t>MIDDLE NAME</t>
   </si>
   <si>
-    <t>B</t>
+    <t>C</t>
   </si>
   <si>
     <t>Widow/er</t>
@@ -290,9 +290,6 @@
   </si>
   <si>
     <t>15. AGENCY EMPLOYEE NO.</t>
-  </si>
-  <si>
-    <t>2020-074</t>
   </si>
   <si>
     <t>21. E-MAIL ADDRESS (if any)</t>
@@ -10458,13 +10455,13 @@
       </c>
       <c r="B34" s="53"/>
       <c r="C34" s="153"/>
-      <c r="D34" s="368" t="s">
-        <v>83</v>
+      <c r="D34" s="368">
+        <v>19710001</v>
       </c>
       <c r="E34" s="368"/>
       <c r="F34" s="368"/>
       <c r="G34" s="106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H34" s="96"/>
       <c r="I34" s="337"/>
@@ -10474,12 +10471,12 @@
       <c r="M34" s="338"/>
       <c r="N34" s="339"/>
       <c r="Q34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:19" customHeight="1" ht="16.5">
       <c r="A35" s="207" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="208"/>
       <c r="C35" s="208"/>
@@ -10495,15 +10492,15 @@
       <c r="M35" s="208"/>
       <c r="N35" s="209"/>
       <c r="Q35" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:19" customHeight="1" ht="21">
       <c r="A36" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="214" t="s">
         <v>88</v>
-      </c>
-      <c r="B36" s="214" t="s">
-        <v>89</v>
       </c>
       <c r="C36" s="215"/>
       <c r="D36" s="335"/>
@@ -10512,30 +10509,30 @@
       <c r="G36" s="335"/>
       <c r="H36" s="335"/>
       <c r="I36" s="449" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36" s="449"/>
       <c r="K36" s="449"/>
       <c r="L36" s="450"/>
       <c r="M36" s="383" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N36" s="384"/>
       <c r="Q36" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:19" customHeight="1" ht="21">
       <c r="A37" s="149"/>
       <c r="B37" s="102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="157"/>
       <c r="D37" s="280"/>
       <c r="E37" s="281"/>
       <c r="F37" s="282"/>
       <c r="G37" s="440" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H37" s="440"/>
       <c r="I37" s="293"/>
@@ -10545,13 +10542,13 @@
       <c r="M37" s="300"/>
       <c r="N37" s="301"/>
       <c r="Q37" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:19" customHeight="1" ht="21">
       <c r="A38" s="167"/>
       <c r="B38" s="212" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="211"/>
       <c r="D38" s="335"/>
@@ -10566,13 +10563,13 @@
       <c r="M38" s="300"/>
       <c r="N38" s="301"/>
       <c r="Q38" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:19" customHeight="1" ht="21">
       <c r="A39" s="168"/>
       <c r="B39" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="95"/>
       <c r="D39" s="299"/>
@@ -10587,13 +10584,13 @@
       <c r="M39" s="300"/>
       <c r="N39" s="301"/>
       <c r="Q39" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:19" customHeight="1" ht="21">
       <c r="A40" s="168"/>
       <c r="B40" s="94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" s="95"/>
       <c r="D40" s="299"/>
@@ -10608,13 +10605,13 @@
       <c r="M40" s="300"/>
       <c r="N40" s="301"/>
       <c r="Q40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:19" customHeight="1" ht="21">
       <c r="A41" s="168"/>
       <c r="B41" s="94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="95"/>
       <c r="D41" s="299"/>
@@ -10629,13 +10626,13 @@
       <c r="M41" s="300"/>
       <c r="N41" s="301"/>
       <c r="Q41" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:19" customHeight="1" ht="21">
       <c r="A42" s="100"/>
       <c r="B42" s="101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="135"/>
       <c r="D42" s="299"/>
@@ -10650,15 +10647,15 @@
       <c r="M42" s="300"/>
       <c r="N42" s="301"/>
       <c r="Q42" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:19" customHeight="1" ht="21">
       <c r="A43" s="210" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="256" t="s">
         <v>106</v>
-      </c>
-      <c r="B43" s="256" t="s">
-        <v>107</v>
       </c>
       <c r="C43" s="101"/>
       <c r="D43" s="299"/>
@@ -10673,7 +10670,7 @@
       <c r="M43" s="300"/>
       <c r="N43" s="301"/>
       <c r="Q43" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:19" customHeight="1" ht="21">
@@ -10686,7 +10683,7 @@
       <c r="E44" s="281"/>
       <c r="F44" s="282"/>
       <c r="G44" s="440" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H44" s="440"/>
       <c r="I44" s="293"/>
@@ -10696,7 +10693,7 @@
       <c r="M44" s="300"/>
       <c r="N44" s="301"/>
       <c r="Q44" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:19" customHeight="1" ht="21">
@@ -10717,15 +10714,15 @@
       <c r="M45" s="300"/>
       <c r="N45" s="301"/>
       <c r="Q45" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:19" customHeight="1" ht="21">
       <c r="A46" s="149" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="297" t="s">
         <v>112</v>
-      </c>
-      <c r="B46" s="297" t="s">
-        <v>113</v>
       </c>
       <c r="C46" s="297"/>
       <c r="D46" s="297"/>
@@ -10740,7 +10737,7 @@
       <c r="M46" s="300"/>
       <c r="N46" s="301"/>
       <c r="Q46" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:19" customHeight="1" ht="21">
@@ -10761,7 +10758,7 @@
       <c r="M47" s="300"/>
       <c r="N47" s="301"/>
       <c r="Q47" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:19" customHeight="1" ht="21">
@@ -10782,7 +10779,7 @@
       <c r="M48" s="300"/>
       <c r="N48" s="301"/>
       <c r="Q48" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:19" customHeight="1" ht="21">
@@ -10797,7 +10794,7 @@
       <c r="G49" s="444"/>
       <c r="H49" s="444"/>
       <c r="I49" s="295" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J49" s="295"/>
       <c r="K49" s="295"/>
@@ -10805,12 +10802,12 @@
       <c r="M49" s="295"/>
       <c r="N49" s="296"/>
       <c r="Q49" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:19" customHeight="1" ht="15.75">
       <c r="A50" s="170" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B50" s="170"/>
       <c r="C50" s="97"/>
@@ -10820,7 +10817,7 @@
       <c r="G50" s="98"/>
       <c r="H50" s="98"/>
       <c r="I50" s="366" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J50" s="366"/>
       <c r="K50" s="366"/>
@@ -10828,42 +10825,42 @@
       <c r="M50" s="366"/>
       <c r="N50" s="367"/>
       <c r="Q50" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:19" customHeight="1" ht="14.25">
       <c r="A51" s="358" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="305" t="s">
         <v>122</v>
-      </c>
-      <c r="B51" s="305" t="s">
-        <v>123</v>
       </c>
       <c r="C51" s="305"/>
       <c r="D51" s="308" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E51" s="309"/>
       <c r="F51" s="310"/>
       <c r="G51" s="308" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H51" s="309"/>
       <c r="I51" s="441"/>
       <c r="J51" s="436" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K51" s="437"/>
       <c r="L51" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="M51" s="360" t="s">
         <v>127</v>
       </c>
-      <c r="M51" s="360" t="s">
+      <c r="N51" s="445" t="s">
         <v>128</v>
       </c>
-      <c r="N51" s="445" t="s">
+      <c r="Q51" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:19" customHeight="1" ht="19.5">
@@ -10882,7 +10879,7 @@
       <c r="M52" s="360"/>
       <c r="N52" s="445"/>
       <c r="Q52" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:19" customHeight="1" ht="14.25">
@@ -10896,10 +10893,10 @@
       <c r="H53" s="315"/>
       <c r="I53" s="443"/>
       <c r="J53" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="K53" s="104" t="s">
         <v>132</v>
-      </c>
-      <c r="K53" s="104" t="s">
-        <v>133</v>
       </c>
       <c r="L53" s="289"/>
       <c r="M53" s="361"/>
@@ -10907,13 +10904,13 @@
       <c r="O53" s="105"/>
       <c r="P53" s="105"/>
       <c r="Q53" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:19" customHeight="1" ht="28.5">
       <c r="A54" s="216"/>
       <c r="B54" s="217" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C54" s="217"/>
       <c r="D54" s="317"/>
@@ -10928,13 +10925,13 @@
       <c r="M54" s="264"/>
       <c r="N54" s="265"/>
       <c r="Q54" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:19" customHeight="1" ht="28.5">
       <c r="A55" s="216"/>
       <c r="B55" s="217" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C55" s="217"/>
       <c r="D55" s="317"/>
@@ -10949,13 +10946,13 @@
       <c r="M55" s="258"/>
       <c r="N55" s="265"/>
       <c r="Q55" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:19" customHeight="1" ht="28.5">
       <c r="A56" s="216"/>
       <c r="B56" s="217" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C56" s="217"/>
       <c r="D56" s="317"/>
@@ -10970,13 +10967,13 @@
       <c r="M56" s="264"/>
       <c r="N56" s="265"/>
       <c r="Q56" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:19" customHeight="1" ht="28.5">
       <c r="A57" s="216"/>
       <c r="B57" s="217" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C57" s="217"/>
       <c r="D57" s="317"/>
@@ -10991,13 +10988,13 @@
       <c r="M57" s="258"/>
       <c r="N57" s="265"/>
       <c r="Q57" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:19" customHeight="1" ht="28.5">
       <c r="A58" s="218"/>
       <c r="B58" s="219" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C58" s="219"/>
       <c r="D58" s="320"/>
@@ -11012,12 +11009,12 @@
       <c r="M58" s="267"/>
       <c r="N58" s="265"/>
       <c r="Q58" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:19" customHeight="1" ht="12">
       <c r="A59" s="274" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B59" s="275"/>
       <c r="C59" s="275"/>
@@ -11033,12 +11030,12 @@
       <c r="M59" s="275"/>
       <c r="N59" s="276"/>
       <c r="Q59" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:19" customHeight="1" ht="27.75">
       <c r="A60" s="271" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B60" s="272"/>
       <c r="C60" s="273"/>
@@ -11049,19 +11046,19 @@
       <c r="H60" s="284"/>
       <c r="I60" s="285"/>
       <c r="J60" s="286" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K60" s="287"/>
       <c r="L60" s="277"/>
       <c r="M60" s="278"/>
       <c r="N60" s="279"/>
       <c r="Q60" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:19" customHeight="1" ht="12" s="140" customFormat="1">
       <c r="A61" s="270" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B61" s="270"/>
       <c r="C61" s="270"/>
@@ -11077,782 +11074,782 @@
       <c r="M61" s="270"/>
       <c r="N61" s="270"/>
       <c r="Q61" s="231" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:19" customHeight="1" ht="14">
       <c r="Q62" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:19" customHeight="1" ht="14">
       <c r="Q63" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:19" customHeight="1" ht="28">
       <c r="Q64" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:19" customHeight="1" ht="14">
       <c r="Q65" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:19" customHeight="1" ht="14">
       <c r="Q66" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:19" customHeight="1" ht="14">
       <c r="Q67" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:19" customHeight="1" ht="14">
       <c r="Q68" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:19" customHeight="1" ht="28">
       <c r="Q69" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:19" customHeight="1" ht="14">
       <c r="Q70" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:19" customHeight="1" ht="14">
       <c r="Q71" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:19" customHeight="1" ht="14">
       <c r="Q72" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:19" customHeight="1" ht="14">
       <c r="Q73" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:19" customHeight="1" ht="14">
       <c r="Q74" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:19" customHeight="1" ht="14">
       <c r="Q75" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:19" customHeight="1" ht="14">
       <c r="Q76" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:19" customHeight="1" ht="14">
       <c r="Q77" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:19" customHeight="1" ht="14">
       <c r="Q78" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:19" customHeight="1" ht="14">
       <c r="Q79" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:19" customHeight="1" ht="14">
       <c r="Q80" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:19" customHeight="1" ht="14">
       <c r="Q81" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:19" customHeight="1" ht="14">
       <c r="Q82" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:19" customHeight="1" ht="14">
       <c r="Q83" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:19" customHeight="1" ht="14">
       <c r="Q84" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:19" customHeight="1" ht="14">
       <c r="Q85" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:19" customHeight="1" ht="14">
       <c r="Q86" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:19" customHeight="1" ht="14">
       <c r="Q87" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:19" customHeight="1" ht="14">
       <c r="Q88" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:19" customHeight="1" ht="14">
       <c r="Q89" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:19" customHeight="1" ht="14">
       <c r="Q90" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:19" customHeight="1" ht="14">
       <c r="Q91" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:19" customHeight="1" ht="14">
       <c r="Q92" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:19" customHeight="1" ht="14">
       <c r="Q93" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:19" customHeight="1" ht="14">
       <c r="Q94" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:19" customHeight="1" ht="14">
       <c r="Q95" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:19" customHeight="1" ht="14">
       <c r="Q96" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:19" customHeight="1" ht="14">
       <c r="Q97" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:19" customHeight="1" ht="14">
       <c r="Q98" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:19" customHeight="1" ht="14">
       <c r="Q99" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="100" spans="1:19" customHeight="1" ht="14">
       <c r="Q100" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:19" customHeight="1" ht="14">
       <c r="Q101" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102" spans="1:19" customHeight="1" ht="14">
       <c r="Q102" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:19" customHeight="1" ht="14">
       <c r="Q103" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:19" customHeight="1" ht="14">
       <c r="Q104" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:19" customHeight="1" ht="14">
       <c r="Q105" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:19" customHeight="1" ht="14">
       <c r="Q106" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:19" customHeight="1" ht="14">
       <c r="Q107" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:19" customHeight="1" ht="14">
       <c r="Q108" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="1:19" customHeight="1" ht="14">
       <c r="Q109" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:19" customHeight="1" ht="14">
       <c r="Q110" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="111" spans="1:19" customHeight="1" ht="14">
       <c r="Q111" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="1:19" customHeight="1" ht="14">
       <c r="Q112" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113" spans="1:19" customHeight="1" ht="14">
       <c r="Q113" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="114" spans="1:19" customHeight="1" ht="14">
       <c r="Q114" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:19" customHeight="1" ht="14">
       <c r="Q115" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:19" customHeight="1" ht="14">
       <c r="Q116" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:19" customHeight="1" ht="14">
       <c r="Q117" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:19" customHeight="1" ht="14">
       <c r="Q118" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="119" spans="1:19" customHeight="1" ht="14">
       <c r="Q119" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="120" spans="1:19" customHeight="1" ht="14">
       <c r="Q120" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="121" spans="1:19" customHeight="1" ht="14">
       <c r="Q121" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="122" spans="1:19" customHeight="1" ht="14">
       <c r="Q122" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="123" spans="1:19" customHeight="1" ht="14">
       <c r="Q123" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="124" spans="1:19" customHeight="1" ht="14">
       <c r="Q124" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="125" spans="1:19" customHeight="1" ht="14">
       <c r="Q125" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="126" spans="1:19" customHeight="1" ht="14">
       <c r="Q126" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="127" spans="1:19" customHeight="1" ht="14">
       <c r="Q127" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="128" spans="1:19" customHeight="1" ht="28">
       <c r="Q128" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="129" spans="1:19" customHeight="1" ht="14">
       <c r="Q129" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="130" spans="1:19" customHeight="1" ht="14">
       <c r="Q130" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="131" spans="1:19" customHeight="1" ht="14">
       <c r="Q131" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="132" spans="1:19" customHeight="1" ht="14">
       <c r="Q132" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="133" spans="1:19" customHeight="1" ht="14">
       <c r="Q133" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="134" spans="1:19" customHeight="1" ht="14">
       <c r="Q134" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="135" spans="1:19" customHeight="1" ht="14">
       <c r="Q135" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="136" spans="1:19" customHeight="1" ht="14">
       <c r="Q136" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="1:19" customHeight="1" ht="14">
       <c r="Q137" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="138" spans="1:19" customHeight="1" ht="14">
       <c r="Q138" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="139" spans="1:19" customHeight="1" ht="14">
       <c r="Q139" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="140" spans="1:19" customHeight="1" ht="14">
       <c r="Q140" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="141" spans="1:19" customHeight="1" ht="14">
       <c r="Q141" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="142" spans="1:19" customHeight="1" ht="14">
       <c r="Q142" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="143" spans="1:19" customHeight="1" ht="28">
       <c r="Q143" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="144" spans="1:19" customHeight="1" ht="14">
       <c r="Q144" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="145" spans="1:19" customHeight="1" ht="14">
       <c r="Q145" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="146" spans="1:19" customHeight="1" ht="14">
       <c r="Q146" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="147" spans="1:19" customHeight="1" ht="14">
       <c r="Q147" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:19" customHeight="1" ht="14">
       <c r="Q148" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="149" spans="1:19" customHeight="1" ht="14">
       <c r="Q149" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="150" spans="1:19" customHeight="1" ht="14">
       <c r="Q150" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="151" spans="1:19" customHeight="1" ht="14">
       <c r="Q151" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="152" spans="1:19" customHeight="1" ht="14">
       <c r="Q152" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="153" spans="1:19" customHeight="1" ht="28">
       <c r="Q153" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="154" spans="1:19" customHeight="1" ht="14">
       <c r="Q154" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="155" spans="1:19" customHeight="1" ht="28">
       <c r="Q155" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="156" spans="1:19" customHeight="1" ht="14">
       <c r="Q156" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="157" spans="1:19" customHeight="1" ht="14">
       <c r="Q157" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="158" spans="1:19" customHeight="1" ht="14">
       <c r="Q158" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="159" spans="1:19" customHeight="1" ht="14">
       <c r="Q159" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="160" spans="1:19" customHeight="1" ht="14">
       <c r="Q160" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="161" spans="1:19" customHeight="1" ht="14">
       <c r="Q161" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="162" spans="1:19" customHeight="1" ht="14">
       <c r="Q162" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="163" spans="1:19" customHeight="1" ht="14">
       <c r="Q163" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="164" spans="1:19" customHeight="1" ht="14">
       <c r="Q164" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="165" spans="1:19" customHeight="1" ht="28">
       <c r="Q165" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="166" spans="1:19" customHeight="1" ht="14">
       <c r="Q166" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="167" spans="1:19" customHeight="1" ht="42">
       <c r="Q167" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="168" spans="1:19" customHeight="1" ht="14">
       <c r="Q168" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="169" spans="1:19" customHeight="1" ht="14">
       <c r="Q169" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="170" spans="1:19" customHeight="1" ht="28">
       <c r="Q170" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="171" spans="1:19" customHeight="1" ht="14">
       <c r="Q171" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="172" spans="1:19" customHeight="1" ht="14">
       <c r="Q172" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="173" spans="1:19" customHeight="1" ht="14">
       <c r="Q173" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="174" spans="1:19" customHeight="1" ht="14">
       <c r="Q174" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="175" spans="1:19" customHeight="1" ht="14">
       <c r="Q175" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="176" spans="1:19" customHeight="1" ht="14">
       <c r="Q176" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="177" spans="1:19" customHeight="1" ht="14">
       <c r="Q177" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="178" spans="1:19" customHeight="1" ht="14">
       <c r="Q178" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="179" spans="1:19" customHeight="1" ht="14">
       <c r="Q179" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="180" spans="1:19" customHeight="1" ht="28">
       <c r="Q180" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="181" spans="1:19" customHeight="1" ht="14">
       <c r="Q181" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="182" spans="1:19" customHeight="1" ht="14">
       <c r="Q182" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="183" spans="1:19" customHeight="1" ht="14">
       <c r="Q183" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="184" spans="1:19" customHeight="1" ht="14">
       <c r="Q184" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="185" spans="1:19" customHeight="1" ht="14">
       <c r="Q185" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="186" spans="1:19" customHeight="1" ht="14">
       <c r="Q186" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="187" spans="1:19" customHeight="1" ht="14">
       <c r="Q187" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="188" spans="1:19" customHeight="1" ht="14">
       <c r="Q188" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="189" spans="1:19" customHeight="1" ht="14">
       <c r="Q189" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="190" spans="1:19" customHeight="1" ht="14">
       <c r="Q190" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="191" spans="1:19" customHeight="1" ht="14">
       <c r="Q191" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="192" spans="1:19" customHeight="1" ht="14">
       <c r="Q192" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="193" spans="1:19" customHeight="1" ht="14">
       <c r="Q193" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="194" spans="1:19" customHeight="1" ht="14">
       <c r="Q194" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="195" spans="1:19" customHeight="1" ht="14">
       <c r="Q195" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="196" spans="1:19" customHeight="1" ht="14">
       <c r="Q196" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="197" spans="1:19" customHeight="1" ht="14">
       <c r="Q197" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="198" spans="1:19" customHeight="1" ht="14">
       <c r="Q198" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="199" spans="1:19" customHeight="1" ht="14">
       <c r="Q199" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="200" spans="1:19" customHeight="1" ht="28">
       <c r="Q200" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="201" spans="1:19" customHeight="1" ht="14">
       <c r="Q201" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="202" spans="1:19" customHeight="1" ht="14">
       <c r="Q202" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="203" spans="1:19" customHeight="1" ht="14">
       <c r="Q203" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="204" spans="1:19" customHeight="1" ht="14">
       <c r="Q204" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="205" spans="1:19" customHeight="1" ht="14">
       <c r="Q205" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="206" spans="1:19" customHeight="1" ht="14">
       <c r="Q206" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="207" spans="1:19" customHeight="1" ht="28">
       <c r="Q207" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="208" spans="1:19" customHeight="1" ht="28">
       <c r="Q208" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="209" spans="1:19" customHeight="1" ht="14">
       <c r="Q209" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="210" spans="1:19" customHeight="1" ht="14">
       <c r="Q210" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="211" spans="1:19" customHeight="1" ht="14">
       <c r="Q211" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="212" spans="1:19" customHeight="1" ht="14">
       <c r="Q212" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="213" spans="1:19" customHeight="1" ht="14">
       <c r="Q213" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="214" spans="1:19" customHeight="1" ht="14">
       <c r="Q214" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="215" spans="1:19" customHeight="1" ht="14">
       <c r="Q215" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="216" spans="1:19" customHeight="1" ht="14">
       <c r="Q216" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -12541,7 +12538,7 @@
     </row>
     <row r="2" spans="1:14" customHeight="1" ht="18">
       <c r="A2" s="458" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B2" s="459"/>
       <c r="C2" s="459"/>
@@ -12558,28 +12555,28 @@
     </row>
     <row r="3" spans="1:14" customHeight="1" ht="15">
       <c r="A3" s="137" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="309" t="s">
         <v>307</v>
-      </c>
-      <c r="B3" s="309" t="s">
-        <v>308</v>
       </c>
       <c r="C3" s="309"/>
       <c r="D3" s="309"/>
       <c r="E3" s="310"/>
       <c r="F3" s="456" t="s">
+        <v>308</v>
+      </c>
+      <c r="G3" s="308" t="s">
         <v>309</v>
-      </c>
-      <c r="G3" s="308" t="s">
-        <v>310</v>
       </c>
       <c r="H3" s="310"/>
       <c r="I3" s="308" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J3" s="309"/>
       <c r="K3" s="310"/>
       <c r="L3" s="454" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M3" s="455"/>
     </row>
@@ -12596,15 +12593,15 @@
       <c r="J4" s="315"/>
       <c r="K4" s="316"/>
       <c r="L4" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:14" customHeight="1" ht="27">
       <c r="A5" s="461" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B5" s="462"/>
       <c r="C5" s="462"/>
@@ -12711,7 +12708,7 @@
     </row>
     <row r="12" spans="1:14" customHeight="1" ht="12">
       <c r="A12" s="475" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="476"/>
       <c r="C12" s="476"/>
@@ -12728,7 +12725,7 @@
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="18">
       <c r="A13" s="478" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B13" s="479"/>
       <c r="C13" s="479"/>
@@ -12745,7 +12742,7 @@
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="12">
       <c r="A14" s="203" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B14" s="98"/>
       <c r="C14" s="98"/>
@@ -12762,33 +12759,33 @@
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="18">
       <c r="A15" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="312" t="s">
         <v>318</v>
-      </c>
-      <c r="B15" s="312" t="s">
-        <v>319</v>
       </c>
       <c r="C15" s="313"/>
       <c r="D15" s="311" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E15" s="312"/>
       <c r="F15" s="313"/>
       <c r="G15" s="311" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H15" s="312"/>
       <c r="I15" s="313"/>
       <c r="J15" s="471" t="s">
+        <v>321</v>
+      </c>
+      <c r="K15" s="463" t="s">
         <v>322</v>
       </c>
-      <c r="K15" s="463" t="s">
+      <c r="L15" s="481" t="s">
         <v>323</v>
       </c>
-      <c r="L15" s="481" t="s">
+      <c r="M15" s="483" t="s">
         <v>324</v>
-      </c>
-      <c r="M15" s="483" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="15">
@@ -12808,11 +12805,11 @@
     </row>
     <row r="17" spans="1:14" customHeight="1" ht="18.75">
       <c r="A17" s="468" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B17" s="469"/>
       <c r="C17" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="314"/>
       <c r="E17" s="315"/>
@@ -13247,7 +13244,7 @@
     </row>
     <row r="46" spans="1:14" customHeight="1" ht="9.75">
       <c r="A46" s="494" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46" s="495"/>
       <c r="C46" s="495"/>
@@ -13264,7 +13261,7 @@
     </row>
     <row r="47" spans="1:14" customHeight="1" ht="27.75">
       <c r="A47" s="271" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47" s="272"/>
       <c r="C47" s="273"/>
@@ -13274,7 +13271,7 @@
       <c r="G47" s="489"/>
       <c r="H47" s="490"/>
       <c r="I47" s="226" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J47" s="227"/>
       <c r="K47" s="228"/>
@@ -13284,7 +13281,7 @@
     </row>
     <row r="48" spans="1:14" customHeight="1" ht="9">
       <c r="A48" s="487" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B48" s="487"/>
       <c r="C48" s="487"/>
@@ -13498,7 +13495,7 @@
     </row>
     <row r="2" spans="1:13" customHeight="1" ht="22.5">
       <c r="A2" s="545" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B2" s="546"/>
       <c r="C2" s="546"/>
@@ -13513,22 +13510,22 @@
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="15">
       <c r="A3" s="531" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="533" t="s">
         <v>328</v>
-      </c>
-      <c r="B3" s="533" t="s">
-        <v>329</v>
       </c>
       <c r="C3" s="533"/>
       <c r="D3" s="534"/>
       <c r="E3" s="309" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F3" s="310"/>
       <c r="G3" s="509" t="s">
+        <v>330</v>
+      </c>
+      <c r="H3" s="308" t="s">
         <v>331</v>
-      </c>
-      <c r="H3" s="308" t="s">
-        <v>332</v>
       </c>
       <c r="I3" s="540"/>
       <c r="J3" s="540"/>
@@ -13553,10 +13550,10 @@
       <c r="C5" s="548"/>
       <c r="D5" s="549"/>
       <c r="E5" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="G5" s="464"/>
       <c r="H5" s="544"/>
@@ -13657,7 +13654,7 @@
     </row>
     <row r="13" spans="1:13" customHeight="1" ht="11.25">
       <c r="A13" s="475" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="476"/>
       <c r="C13" s="476"/>
@@ -13672,7 +13669,7 @@
     </row>
     <row r="14" spans="1:13" customHeight="1" ht="18">
       <c r="A14" s="553" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B14" s="554"/>
       <c r="C14" s="554"/>
@@ -13687,25 +13684,25 @@
     </row>
     <row r="15" spans="1:13" customHeight="1" ht="18">
       <c r="A15" s="532" t="s">
+        <v>333</v>
+      </c>
+      <c r="B15" s="312" t="s">
         <v>334</v>
-      </c>
-      <c r="B15" s="312" t="s">
-        <v>335</v>
       </c>
       <c r="C15" s="528"/>
       <c r="D15" s="529"/>
       <c r="E15" s="312" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F15" s="313"/>
       <c r="G15" s="463" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H15" s="471" t="s">
+        <v>336</v>
+      </c>
+      <c r="I15" s="311" t="s">
         <v>337</v>
-      </c>
-      <c r="I15" s="311" t="s">
-        <v>338</v>
       </c>
       <c r="J15" s="528"/>
       <c r="K15" s="543"/>
@@ -13729,10 +13726,10 @@
       <c r="C17" s="354"/>
       <c r="D17" s="530"/>
       <c r="E17" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="G17" s="464"/>
       <c r="H17" s="472"/>
@@ -14015,7 +14012,7 @@
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="13">
       <c r="A39" s="274" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" s="275"/>
       <c r="C39" s="275"/>
@@ -14030,7 +14027,7 @@
     </row>
     <row r="40" spans="1:13" customHeight="1" ht="22.5">
       <c r="A40" s="522" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B40" s="523"/>
       <c r="C40" s="523"/>
@@ -14045,26 +14042,26 @@
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="33.75">
       <c r="A41" s="138" t="s">
+        <v>339</v>
+      </c>
+      <c r="B41" s="145" t="s">
         <v>340</v>
       </c>
-      <c r="B41" s="145" t="s">
+      <c r="C41" s="139" t="s">
         <v>341</v>
       </c>
-      <c r="C41" s="139" t="s">
+      <c r="D41" s="504" t="s">
         <v>342</v>
-      </c>
-      <c r="D41" s="504" t="s">
-        <v>343</v>
       </c>
       <c r="E41" s="504"/>
       <c r="F41" s="504"/>
       <c r="G41" s="504"/>
       <c r="H41" s="505"/>
       <c r="I41" s="139" t="s">
+        <v>343</v>
+      </c>
+      <c r="J41" s="504" t="s">
         <v>344</v>
-      </c>
-      <c r="J41" s="504" t="s">
-        <v>345</v>
       </c>
       <c r="K41" s="384"/>
     </row>
@@ -14161,7 +14158,7 @@
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="11.25">
       <c r="A49" s="274" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B49" s="275"/>
       <c r="C49" s="275"/>
@@ -14176,7 +14173,7 @@
     </row>
     <row r="50" spans="1:13" customHeight="1" ht="28.5">
       <c r="A50" s="271" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" s="273"/>
       <c r="C50" s="488"/>
@@ -14184,7 +14181,7 @@
       <c r="E50" s="489"/>
       <c r="F50" s="490"/>
       <c r="G50" s="498" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H50" s="286"/>
       <c r="I50" s="488"/>
@@ -14195,7 +14192,7 @@
     </row>
     <row r="51" spans="1:13" customHeight="1" ht="9.75">
       <c r="K51" s="234" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:13" customHeight="1" ht="3"/>
@@ -14347,11 +14344,11 @@
     </row>
     <row r="2" spans="1:14" customHeight="1" ht="13.5">
       <c r="A2" s="654" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" s="655"/>
       <c r="C2" s="682" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D2" s="682"/>
       <c r="E2" s="682"/>
@@ -14368,7 +14365,7 @@
       <c r="A3" s="38"/>
       <c r="B3" s="39"/>
       <c r="C3" s="670" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D3" s="670"/>
       <c r="E3" s="670"/>
@@ -14385,7 +14382,7 @@
       <c r="A4" s="38"/>
       <c r="B4" s="39"/>
       <c r="C4" s="670" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D4" s="670"/>
       <c r="E4" s="670"/>
@@ -14411,7 +14408,7 @@
       <c r="A6" s="38"/>
       <c r="B6" s="39"/>
       <c r="C6" s="670" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D6" s="670"/>
       <c r="E6" s="670"/>
@@ -14439,7 +14436,7 @@
       <c r="A8" s="38"/>
       <c r="B8" s="39"/>
       <c r="C8" s="670" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D8" s="670"/>
       <c r="E8" s="670"/>
@@ -14463,7 +14460,7 @@
       <c r="E10" s="670"/>
       <c r="F10" s="671"/>
       <c r="G10" s="586" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H10" s="586"/>
       <c r="I10" s="586"/>
@@ -14504,11 +14501,11 @@
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="18">
       <c r="A13" s="359" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B13" s="694"/>
       <c r="C13" s="690" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D13" s="690"/>
       <c r="E13" s="528"/>
@@ -14529,7 +14526,7 @@
       <c r="E14" s="528"/>
       <c r="F14" s="529"/>
       <c r="G14" s="585" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H14" s="586"/>
       <c r="I14" s="586"/>
@@ -14587,7 +14584,7 @@
       <c r="A18" s="50"/>
       <c r="B18" s="51"/>
       <c r="C18" s="588" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D18" s="588"/>
       <c r="E18" s="589"/>
@@ -14608,7 +14605,7 @@
       <c r="E19" s="589"/>
       <c r="F19" s="590"/>
       <c r="G19" s="585" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H19" s="586"/>
       <c r="I19" s="586"/>
@@ -14626,7 +14623,7 @@
       <c r="F20" s="590"/>
       <c r="G20" s="55"/>
       <c r="H20" s="562" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I20" s="562"/>
       <c r="J20" s="246"/>
@@ -14642,7 +14639,7 @@
       <c r="E21" s="589"/>
       <c r="F21" s="590"/>
       <c r="G21" s="563" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H21" s="564"/>
       <c r="I21" s="564"/>
@@ -14659,7 +14656,7 @@
       <c r="E22" s="591"/>
       <c r="F22" s="592"/>
       <c r="G22" s="122" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H22" s="235"/>
       <c r="I22" s="593"/>
@@ -14670,11 +14667,11 @@
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="18">
       <c r="A23" s="346" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B23" s="582"/>
       <c r="C23" s="595" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D23" s="595"/>
       <c r="E23" s="595"/>
@@ -14695,7 +14692,7 @@
       <c r="E24" s="597"/>
       <c r="F24" s="598"/>
       <c r="G24" s="585" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H24" s="586"/>
       <c r="I24" s="586"/>
@@ -14736,11 +14733,11 @@
     </row>
     <row r="27" spans="1:14" customHeight="1" ht="14.25">
       <c r="A27" s="346" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B27" s="582"/>
       <c r="C27" s="595" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D27" s="595"/>
       <c r="E27" s="595"/>
@@ -14761,7 +14758,7 @@
       <c r="E28" s="597"/>
       <c r="F28" s="598"/>
       <c r="G28" s="585" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H28" s="586"/>
       <c r="I28" s="586"/>
@@ -14801,11 +14798,11 @@
     </row>
     <row r="31" spans="1:14" customHeight="1" ht="18">
       <c r="A31" s="346" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B31" s="582"/>
       <c r="C31" s="595" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D31" s="595"/>
       <c r="E31" s="595"/>
@@ -14826,7 +14823,7 @@
       <c r="E32" s="597"/>
       <c r="F32" s="598"/>
       <c r="G32" s="633" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H32" s="634"/>
       <c r="I32" s="634"/>
@@ -14854,7 +14851,7 @@
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
       <c r="C34" s="597" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D34" s="597"/>
       <c r="E34" s="597"/>
@@ -14875,7 +14872,7 @@
       <c r="E35" s="597"/>
       <c r="F35" s="598"/>
       <c r="G35" s="633" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H35" s="634"/>
       <c r="I35" s="634"/>
@@ -14900,11 +14897,11 @@
     </row>
     <row r="37" spans="1:14" customHeight="1" ht="18">
       <c r="A37" s="346" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B37" s="582"/>
       <c r="C37" s="688" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D37" s="688"/>
       <c r="E37" s="688"/>
@@ -14925,7 +14922,7 @@
       <c r="E38" s="690"/>
       <c r="F38" s="691"/>
       <c r="G38" s="585" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H38" s="586"/>
       <c r="I38" s="586"/>
@@ -14966,11 +14963,11 @@
     </row>
     <row r="41" spans="1:14" customHeight="1" ht="28.5">
       <c r="A41" s="685" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B41" s="686"/>
       <c r="C41" s="597" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D41" s="597"/>
       <c r="E41" s="597"/>
@@ -15000,11 +14997,11 @@
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="13.5">
       <c r="A43" s="63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B43" s="64"/>
       <c r="C43" s="597" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D43" s="597"/>
       <c r="E43" s="597"/>
@@ -15019,7 +15016,7 @@
       <c r="E44" s="597"/>
       <c r="F44" s="598"/>
       <c r="G44" s="186" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H44" s="238"/>
       <c r="I44" s="115"/>
@@ -15030,11 +15027,11 @@
     </row>
     <row r="45" spans="1:14" customHeight="1" ht="13.5">
       <c r="A45" s="63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B45" s="64"/>
       <c r="C45" s="598" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D45" s="598"/>
       <c r="E45" s="598"/>
@@ -15049,7 +15046,7 @@
       <c r="E46" s="598"/>
       <c r="F46" s="598"/>
       <c r="G46" s="187" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H46" s="239"/>
       <c r="I46" s="115"/>
@@ -15061,11 +15058,11 @@
     </row>
     <row r="47" spans="1:14" customHeight="1" ht="13.5">
       <c r="A47" s="63" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B47" s="64"/>
       <c r="C47" s="597" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D47" s="597"/>
       <c r="E47" s="112"/>
@@ -15080,7 +15077,7 @@
       <c r="E48" s="649"/>
       <c r="F48" s="650"/>
       <c r="G48" s="188" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H48" s="240"/>
       <c r="I48" s="117"/>
@@ -15108,11 +15105,11 @@
     </row>
     <row r="50" spans="1:14" customHeight="1" ht="23.25">
       <c r="A50" s="583" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B50" s="584"/>
       <c r="C50" s="184" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D50" s="184"/>
       <c r="E50" s="184"/>
@@ -15127,17 +15124,17 @@
     </row>
     <row r="51" spans="1:14" customHeight="1" ht="18">
       <c r="A51" s="645" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B51" s="646"/>
       <c r="C51" s="646"/>
       <c r="D51" s="646"/>
       <c r="E51" s="647"/>
       <c r="F51" s="175" t="s">
+        <v>383</v>
+      </c>
+      <c r="G51" s="383" t="s">
         <v>384</v>
-      </c>
-      <c r="G51" s="383" t="s">
-        <v>385</v>
       </c>
       <c r="H51" s="504"/>
       <c r="I51" s="384"/>
@@ -15193,11 +15190,11 @@
     </row>
     <row r="55" spans="1:14" customHeight="1" ht="39.75">
       <c r="A55" s="654" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B55" s="655"/>
       <c r="C55" s="668" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D55" s="668"/>
       <c r="E55" s="668"/>
@@ -15222,7 +15219,7 @@
       <c r="I56" s="242"/>
       <c r="J56" s="195"/>
       <c r="K56" s="641" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L56" s="641"/>
       <c r="M56" s="174"/>
@@ -15272,7 +15269,7 @@
     <row r="60" spans="1:14" customHeight="1" ht="25.5">
       <c r="A60" s="74"/>
       <c r="B60" s="574" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C60" s="575"/>
       <c r="D60" s="576"/>
@@ -15287,7 +15284,7 @@
     <row r="61" spans="1:14" customHeight="1" ht="20.25">
       <c r="A61" s="74"/>
       <c r="B61" s="627" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C61" s="628"/>
       <c r="D61" s="129"/>
@@ -15302,7 +15299,7 @@
     <row r="62" spans="1:14" customHeight="1" ht="9">
       <c r="A62" s="74"/>
       <c r="B62" s="616" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C62" s="617"/>
       <c r="D62" s="577"/>
@@ -15320,7 +15317,7 @@
       <c r="C63" s="630"/>
       <c r="D63" s="578"/>
       <c r="F63" s="579" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G63" s="580"/>
       <c r="H63" s="580"/>
@@ -15332,7 +15329,7 @@
     <row r="64" spans="1:14" customHeight="1" ht="10.5">
       <c r="A64" s="74"/>
       <c r="B64" s="616" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C64" s="617"/>
       <c r="D64" s="577"/>
@@ -15351,14 +15348,14 @@
       <c r="C65" s="619"/>
       <c r="D65" s="620"/>
       <c r="F65" s="613" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G65" s="614"/>
       <c r="H65" s="614"/>
       <c r="I65" s="615"/>
       <c r="J65" s="77"/>
       <c r="K65" s="611" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L65" s="612"/>
       <c r="M65" s="75"/>
@@ -15380,7 +15377,7 @@
     </row>
     <row r="67" spans="1:14" customHeight="1" ht="28.5">
       <c r="A67" s="608" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B67" s="609"/>
       <c r="C67" s="609"/>
@@ -15415,7 +15412,7 @@
       <c r="C69" s="225"/>
       <c r="D69" s="225"/>
       <c r="E69" s="602" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F69" s="603"/>
       <c r="G69" s="603"/>
@@ -15443,7 +15440,7 @@
     </row>
     <row r="71" spans="1:14" customHeight="1" ht="10.5">
       <c r="A71" s="601" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B71" s="601"/>
       <c r="C71" s="601"/>
@@ -16138,35 +16135,35 @@
   <sheetData>
     <row r="1" spans="1:3" customHeight="1" ht="13">
       <c r="A1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" t="s">
         <v>402</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>403</v>
-      </c>
-      <c r="C2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16176,7 +16173,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
